--- a/data/experiment_kit.xlsx
+++ b/data/experiment_kit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cloud\git\pogoksci\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{158E8F24-3195-4C49-8101-2AC0F50351B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD607587-9893-4052-893A-157D2396BCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18756" yWindow="1008" windowWidth="25776" windowHeight="22716" xr2:uid="{2ED81245-91AA-4642-A5E5-984CD85632EF}"/>
+    <workbookView xWindow="1290" yWindow="0" windowWidth="18060" windowHeight="15480" xr2:uid="{2ED81245-91AA-4642-A5E5-984CD85632EF}"/>
   </bookViews>
   <sheets>
     <sheet name="experiment_kit" sheetId="1" r:id="rId1"/>
@@ -543,9 +543,6 @@
     <t>DNA 추출법 동물세포</t>
   </si>
   <si>
-    <t>"64-17-5", "77-86-1", "60-00-4", "6850-28-8"</t>
-  </si>
-  <si>
     <t>DNA 추출법 식물세포</t>
   </si>
   <si>
@@ -574,6 +571,10 @@
   </si>
   <si>
     <t>PS플라스틱 열쇠고리 만들기</t>
+  </si>
+  <si>
+    <t>"64-17-5", "77-86-1", "60-00-4"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1547,20 +1548,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0399E3-2D10-44FF-B9F3-D99C25AC5B9F}">
   <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="D87" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="108.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1577,7 +1578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1588,7 +1589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1599,7 +1600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1613,7 +1614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1627,7 +1628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1644,7 +1645,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1661,7 +1662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1675,7 +1676,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1689,7 +1690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1706,7 +1707,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1717,7 +1718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1734,7 +1735,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1748,7 +1749,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1762,7 +1763,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1776,7 +1777,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1790,7 +1791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1807,7 +1808,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1818,7 +1819,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1829,7 +1830,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1843,7 +1844,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1854,7 +1855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1868,7 +1869,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1882,7 +1883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1893,7 +1894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1904,7 +1905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1921,7 +1922,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1932,7 +1933,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1943,7 +1944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1957,7 +1958,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1971,7 +1972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1985,7 +1986,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1999,7 +2000,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2016,7 +2017,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2030,7 +2031,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2044,7 +2045,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2058,7 +2059,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2069,7 +2070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2080,7 +2081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2091,7 +2092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2102,7 +2103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2119,7 +2120,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2133,7 +2134,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2150,7 +2151,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2164,7 +2165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2178,7 +2179,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2189,7 +2190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2200,7 +2201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2214,7 +2215,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2225,7 +2226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2250,7 +2251,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2261,7 +2262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2275,7 +2276,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2289,7 +2290,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2306,7 +2307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2320,7 +2321,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2331,7 +2332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2345,7 +2346,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2359,7 +2360,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2373,7 +2374,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2384,7 +2385,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2398,7 +2399,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2415,7 +2416,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2426,7 +2427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2437,7 +2438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2454,7 +2455,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2471,7 +2472,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2485,7 +2486,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2496,7 +2497,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2510,7 +2511,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2524,7 +2525,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2541,7 +2542,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2558,7 +2559,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2572,7 +2573,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2600,7 +2601,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2614,7 +2615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2625,7 +2626,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2639,7 +2640,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2656,7 +2657,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2673,7 +2674,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2684,7 +2685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2695,7 +2696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2709,7 +2710,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2726,7 +2727,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2737,7 +2738,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2748,7 +2749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2759,7 +2760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2770,7 +2771,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2784,7 +2785,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2795,7 +2796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2806,7 +2807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2817,7 +2818,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2831,7 +2832,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2842,7 +2843,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2853,7 +2854,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2864,7 +2865,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2881,7 +2882,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2892,7 +2893,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2906,7 +2907,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2920,7 +2921,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2934,7 +2935,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2945,7 +2946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2959,7 +2960,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2973,10 +2974,10 @@
         <v>15</v>
       </c>
       <c r="E105" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2984,7 +2985,7 @@
         <v>10</v>
       </c>
       <c r="C106" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D106" t="s">
         <v>15</v>
@@ -2993,7 +2994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3001,52 +3002,52 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
       </c>
       <c r="E107" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="C108" t="s">
+        <v>175</v>
+      </c>
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" t="s">
         <v>176</v>
       </c>
-      <c r="D108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E108" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="C109" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D109" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D110" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3054,21 +3055,21 @@
         <v>6</v>
       </c>
       <c r="C111" t="s">
+        <v>179</v>
+      </c>
+      <c r="D111" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" t="s">
         <v>180</v>
       </c>
-      <c r="D111" t="s">
-        <v>10</v>
-      </c>
-      <c r="E111" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D112" t="s">
         <v>38</v>

--- a/data/experiment_kit.xlsx
+++ b/data/experiment_kit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cloud\git\pogoksci\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD607587-9893-4052-893A-157D2396BCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F542DAFC-A17F-4978-80D3-A6295281059E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="0" windowWidth="18060" windowHeight="15480" xr2:uid="{2ED81245-91AA-4642-A5E5-984CD85632EF}"/>
+    <workbookView xWindow="1125" yWindow="0" windowWidth="27510" windowHeight="15480" xr2:uid="{2ED81245-91AA-4642-A5E5-984CD85632EF}"/>
   </bookViews>
   <sheets>
     <sheet name="experiment_kit" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="213">
   <si>
     <t>id</t>
   </si>
@@ -574,6 +574,126 @@
   </si>
   <si>
     <t>"64-17-5", "77-86-1", "60-00-4"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>코로나 바이러스 모의 진단실험</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명과학</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4D 와카워터</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>공기청정기 쿼드만들기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>화학</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇팔 만들기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리학</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>투명 스피커 만들기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리 매직큐브</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합과학</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>비즈 박테리오파지 만들기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNA부터 단백질합성 퍼즐키트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>항생제 비처리 모의실험</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oh 마이 베이비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNA 비즈</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지구과학</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>별자리판</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기부상열차 볼펜팽이</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니기주공명 실험장치</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>베르누이 주머니</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>베르누이 빨대 분무기 만들기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>비행기 속 파스칼의 원리를 찾아보자</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드론 미니</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛 공간 상자</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>판의 이동과 경계</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍력 발전기 세트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨대 펜플룻</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명 다양성을 지키는 보드게임 키스톤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명과학, 환경</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1546,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0399E3-2D10-44FF-B9F3-D99C25AC5B9F}">
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D87" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1796,7 +1916,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
         <v>35</v>
@@ -2139,7 +2259,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
         <v>75</v>
@@ -2645,7 +2765,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C80" t="s">
         <v>135</v>
@@ -2764,6 +2884,9 @@
       <c r="A89">
         <v>88</v>
       </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
       <c r="C89" t="s">
         <v>148</v>
       </c>
@@ -2950,6 +3073,9 @@
       <c r="A104">
         <v>103</v>
       </c>
+      <c r="B104">
+        <v>5</v>
+      </c>
       <c r="C104" t="s">
         <v>169</v>
       </c>
@@ -3073,6 +3199,286 @@
       </c>
       <c r="D112" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>183</v>
+      </c>
+      <c r="D113" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>10</v>
+      </c>
+      <c r="C114" t="s">
+        <v>185</v>
+      </c>
+      <c r="D114" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="C115" t="s">
+        <v>186</v>
+      </c>
+      <c r="D115" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="C116" t="s">
+        <v>189</v>
+      </c>
+      <c r="D116" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="C117" t="s">
+        <v>191</v>
+      </c>
+      <c r="D117" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="C118" t="s">
+        <v>192</v>
+      </c>
+      <c r="D118" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>10</v>
+      </c>
+      <c r="C119" t="s">
+        <v>194</v>
+      </c>
+      <c r="D119" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="C120" t="s">
+        <v>195</v>
+      </c>
+      <c r="D120" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>5</v>
+      </c>
+      <c r="C121" t="s">
+        <v>196</v>
+      </c>
+      <c r="D121" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>10</v>
+      </c>
+      <c r="C122" t="s">
+        <v>197</v>
+      </c>
+      <c r="D122" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="C123" t="s">
+        <v>198</v>
+      </c>
+      <c r="D123" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="C124" t="s">
+        <v>200</v>
+      </c>
+      <c r="D124" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="C125" t="s">
+        <v>201</v>
+      </c>
+      <c r="D125" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>10</v>
+      </c>
+      <c r="C126" t="s">
+        <v>202</v>
+      </c>
+      <c r="D126" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>10</v>
+      </c>
+      <c r="C127" t="s">
+        <v>203</v>
+      </c>
+      <c r="D127" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>5</v>
+      </c>
+      <c r="C128" t="s">
+        <v>204</v>
+      </c>
+      <c r="D128" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="C129" t="s">
+        <v>205</v>
+      </c>
+      <c r="D129" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="C130" t="s">
+        <v>206</v>
+      </c>
+      <c r="D130" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>5</v>
+      </c>
+      <c r="C131" t="s">
+        <v>207</v>
+      </c>
+      <c r="D131" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="C132" t="s">
+        <v>208</v>
+      </c>
+      <c r="D132" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="C133" t="s">
+        <v>209</v>
+      </c>
+      <c r="D133" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="C134" t="s">
+        <v>210</v>
+      </c>
+      <c r="D134" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="C135" t="s">
+        <v>211</v>
+      </c>
+      <c r="D135" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/data/experiment_kit.xlsx
+++ b/data/experiment_kit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cloud\git\pogoksci\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F542DAFC-A17F-4978-80D3-A6295281059E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E352E8C6-FE85-445F-A95E-754EA5B67B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="0" windowWidth="27510" windowHeight="15480" xr2:uid="{2ED81245-91AA-4642-A5E5-984CD85632EF}"/>
+    <workbookView xWindow="225" yWindow="0" windowWidth="27510" windowHeight="15480" xr2:uid="{2ED81245-91AA-4642-A5E5-984CD85632EF}"/>
   </bookViews>
   <sheets>
     <sheet name="experiment_kit" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="222">
   <si>
     <t>id</t>
   </si>
@@ -649,10 +649,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>자기부상열차 볼펜팽이</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>미니기주공명 실험장치</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -694,6 +690,46 @@
   </si>
   <si>
     <t>생명과학, 환경</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리학</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기부상열차 볼펜팽이(10인)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기부상열차 볼펜팽이(4인)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>무선 충전 원리(전자기 유도 현상)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합과학</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>호모폴라 전동기 만들기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리학, 융합과학</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>영의 이중슬릿</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>브릭스-라우셔 진동실험</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>화학</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1666,10 +1702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0399E3-2D10-44FF-B9F3-D99C25AC5B9F}">
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3352,8 +3388,11 @@
       <c r="A125">
         <v>124</v>
       </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
       <c r="C125" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="D125" t="s">
         <v>190</v>
@@ -3367,7 +3406,7 @@
         <v>10</v>
       </c>
       <c r="C126" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D126" t="s">
         <v>190</v>
@@ -3381,7 +3420,7 @@
         <v>10</v>
       </c>
       <c r="C127" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D127" t="s">
         <v>190</v>
@@ -3395,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D128" t="s">
         <v>190</v>
@@ -3406,7 +3445,7 @@
         <v>128</v>
       </c>
       <c r="C129" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D129" t="s">
         <v>193</v>
@@ -3417,7 +3456,7 @@
         <v>129</v>
       </c>
       <c r="C130" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D130" t="s">
         <v>193</v>
@@ -3431,7 +3470,7 @@
         <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D131" t="s">
         <v>190</v>
@@ -3442,7 +3481,7 @@
         <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D132" t="s">
         <v>199</v>
@@ -3453,7 +3492,7 @@
         <v>132</v>
       </c>
       <c r="C133" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D133" t="s">
         <v>193</v>
@@ -3464,7 +3503,7 @@
         <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D134" t="s">
         <v>193</v>
@@ -3475,10 +3514,80 @@
         <v>134</v>
       </c>
       <c r="C135" t="s">
+        <v>210</v>
+      </c>
+      <c r="D135" t="s">
         <v>211</v>
       </c>
-      <c r="D135" t="s">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>10</v>
+      </c>
+      <c r="C136" t="s">
+        <v>213</v>
+      </c>
+      <c r="D136" t="s">
         <v>212</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>5</v>
+      </c>
+      <c r="C137" t="s">
+        <v>215</v>
+      </c>
+      <c r="D137" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>10</v>
+      </c>
+      <c r="C138" t="s">
+        <v>217</v>
+      </c>
+      <c r="D138" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>10</v>
+      </c>
+      <c r="C139" t="s">
+        <v>219</v>
+      </c>
+      <c r="D139" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>4</v>
+      </c>
+      <c r="C140" t="s">
+        <v>220</v>
+      </c>
+      <c r="D140" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/data/experiment_kit.xlsx
+++ b/data/experiment_kit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cloud\git\pogoksci\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E352E8C6-FE85-445F-A95E-754EA5B67B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B7735D-70C7-4793-BCF8-AC9A640E8CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="225" yWindow="0" windowWidth="27510" windowHeight="15480" xr2:uid="{2ED81245-91AA-4642-A5E5-984CD85632EF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="223">
   <si>
     <t>id</t>
   </si>
@@ -730,6 +730,10 @@
   </si>
   <si>
     <t>화학</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9005-25-8:", "141-82-2", "10034-96-5", "5329-14-6", "7758-05-6", "7722-84-1"</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1704,8 +1708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0399E3-2D10-44FF-B9F3-D99C25AC5B9F}">
   <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="D141" sqref="D141"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3440,7 +3444,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3451,7 +3455,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3462,7 +3466,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3476,7 +3480,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3487,7 +3491,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3498,7 +3502,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3509,7 +3513,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3520,7 +3524,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3534,7 +3538,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3548,7 +3552,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3562,7 +3566,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3576,7 +3580,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3588,6 +3592,9 @@
       </c>
       <c r="D140" t="s">
         <v>221</v>
+      </c>
+      <c r="E140" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/data/experiment_kit.xlsx
+++ b/data/experiment_kit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cloud\git\pogoksci\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B7735D-70C7-4793-BCF8-AC9A640E8CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F196C9F9-2B0A-4B82-8A01-13710D9E3159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="225" yWindow="0" windowWidth="27510" windowHeight="15480" xr2:uid="{2ED81245-91AA-4642-A5E5-984CD85632EF}"/>
   </bookViews>
@@ -733,7 +733,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>"9005-25-8:", "141-82-2", "10034-96-5", "5329-14-6", "7758-05-6", "7722-84-1"</t>
+    <t>"9005-25-8", "141-82-2", "10034-96-5", "5329-14-6", "7758-05-6", "7722-84-1"</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1709,7 +1709,7 @@
   <dimension ref="A1:E140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="E141" sqref="E141"/>
+      <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
